--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2135180.654706073</v>
+        <v>2132636.84519899</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9729973.339877354</v>
+        <v>9729973.339877352</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>123.7911484401897</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>1.021495826239227</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.34724819842792</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>154.9048224826756</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>60.96760033386538</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596164</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.8563301598667</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>200.9552982430768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705248011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>86.60260667727651</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>212.6160430681819</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.824401034008</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908636</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592417</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>90.06308666747262</v>
+        <v>20.53952247906536</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>241.1435815093809</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>71.79687029690999</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760265</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189057</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428303</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633182987</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.92847288552516</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159608991</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.0479880037681</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>166.0479880037681</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276843</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298174</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709462</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>166.0479880037681</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>166.0479880037681</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>166.0479880037681</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.0479880037681</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.0315200613718</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0315200613718</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304914</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.487822246917</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>800.3357140151743</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W3" t="n">
-        <v>546.0983572869726</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="X3" t="n">
-        <v>338.2468570814398</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="Y3" t="n">
-        <v>338.2468570814398</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.7124446601351</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2429270008668</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2429270008668</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2429270008668</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008668</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008668</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640393</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640393</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>574.7019955581525</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>574.7019955581525</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>346.7124446601351</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>346.7124446601351</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>847.004019800492</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>644.0188700600104</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>446.3159947508624</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="C7" t="n">
-        <v>446.3159947508624</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="D7" t="n">
-        <v>446.3159947508624</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="E7" t="n">
-        <v>298.4029011684693</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="F7" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>967.3781395239273</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>712.6936513180405</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>446.3159947508624</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>446.3159947508624</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="Y7" t="n">
-        <v>446.3159947508624</v>
+        <v>225.1168882493048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.8254949048037</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>473.862977964392</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>473.862977964392</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>473.862977964392</v>
+        <v>540.2933661004025</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478441</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685563</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685563</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467165</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607417</v>
+        <v>442.1757437607408</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045901</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.90571894059</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661157</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342782</v>
+        <v>2435.830015762129</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342782</v>
+        <v>2227.077931858402</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342782</v>
+        <v>2227.077931858402</v>
       </c>
       <c r="V8" t="n">
-        <v>2345.799080475931</v>
+        <v>2227.077931858402</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.030425205817</v>
+        <v>1874.309276588288</v>
       </c>
       <c r="X8" t="n">
-        <v>1619.564666944737</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.425334968925</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010764</v>
+        <v>929.5097208010709</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199494</v>
+        <v>755.0566915199439</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586981</v>
+        <v>606.1222818586926</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532426</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801276</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637186</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572705</v>
+        <v>559.90633895727</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907515</v>
+        <v>854.4423223907506</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865053</v>
+        <v>1217.508790865051</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337621</v>
+        <v>1851.248074049888</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.48000332501</v>
+        <v>2183.134884037277</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789036</v>
+        <v>2430.170242466901</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342782</v>
+        <v>2545.387641020645</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685346</v>
+        <v>2230.81647768534</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751575</v>
+        <v>2002.72632175157</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519833</v>
+        <v>1767.574213519827</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791631</v>
+        <v>1513.336856791626</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586098</v>
+        <v>1305.485356586093</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821144</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2640775470983</v>
+        <v>367.0373856326728</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3278946191914</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685563</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685563</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380138</v>
+        <v>76.63468308380118</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.385004336891</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904022</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1336.515802634451</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1113.534501108856</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.796330661733</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.111842455846</v>
+        <v>838.1030204998731</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.694672418885</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7051215208681</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.912542377338</v>
+        <v>548.6858504629125</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>481.447947124485</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>333.5348535420919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400703</v>
+        <v>762.5477693179072</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121634</v>
+        <v>593.6115863900003</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121634</v>
+        <v>443.4949469776645</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121634</v>
+        <v>295.5818533952714</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121634</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.50206557031</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121657</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.823867745341</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.823867745341</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,16 +6546,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,10 +6971,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,7 +7731,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.7594328861248</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>390.823249958218</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.052681478292</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038306</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1190.190027757912</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>962.2004768598947</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>741.4078977163646</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.262887399594547</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8140,10 +8140,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415543</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094458</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538067</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094969</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348516</v>
+        <v>36.31458639917288</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>45.04089287986326</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.62417772602126</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532861</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194312</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409392933</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.002841960439</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>45.44677382459653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405011</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836474.424157441</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516048</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752544</v>
@@ -26326,22 +26326,22 @@
         <v>585181.2847752547</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752545</v>
@@ -26350,10 +26350,10 @@
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580783</v>
+        <v>390680.0076580773</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606938</v>
+        <v>507909.232060695</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101753</v>
+        <v>95270.23779101713</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954696</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608932</v>
+        <v>138058.0537608936</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26436,7 +26436,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26445,19 +26445,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768941</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="M4" t="n">
-        <v>9947.144321768883</v>
-      </c>
       <c r="N4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="O4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="O4" t="n">
-        <v>9947.144321768932</v>
-      </c>
       <c r="P4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-397318.4669745594</v>
+        <v>-397318.4669745589</v>
       </c>
       <c r="C6" t="n">
-        <v>282769.5136166342</v>
+        <v>282769.5136166345</v>
       </c>
       <c r="D6" t="n">
-        <v>-26385.64584304558</v>
+        <v>-26385.64584304488</v>
       </c>
       <c r="E6" t="n">
-        <v>-33797.62143111536</v>
+        <v>-33832.35935655222</v>
       </c>
       <c r="F6" t="n">
-        <v>474111.6106295786</v>
+        <v>474076.8727041432</v>
       </c>
       <c r="G6" t="n">
-        <v>474111.6106295785</v>
+        <v>474076.8727041424</v>
       </c>
       <c r="H6" t="n">
-        <v>474111.6106295783</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="I6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="J6" t="n">
-        <v>405112.4562104642</v>
+        <v>405077.7182850286</v>
       </c>
       <c r="K6" t="n">
-        <v>474111.6106295783</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="L6" t="n">
-        <v>378841.3728385609</v>
+        <v>378806.6349131254</v>
       </c>
       <c r="M6" t="n">
-        <v>341393.6349341093</v>
+        <v>341358.8970086733</v>
       </c>
       <c r="N6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="O6" t="n">
-        <v>474111.6106295786</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="P6" t="n">
-        <v>474111.6106295785</v>
+        <v>474076.8727041429</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856954</v>
+        <v>640.140690085694</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793304</v>
+        <v>319.6474457933033</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013953</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841875</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013953</v>
+        <v>532.5675980139548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013953</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>230.8918931804933</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>68.11956169856018</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.8329916773154</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788764</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>12.34199861595224</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>225.2910301688121</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,7 +27673,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.838653001052876</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.727397534227606</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045114</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>199.656023825401</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>115.136215401953</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.906699644461</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164537325</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164531982</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.1641031028318</v>
+        <v>265.6876672912391</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29466,10 +29466,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-2.443332518818138e-12</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,22 +34211,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34451,10 +34451,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015063</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>123.5028874333356</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,10 +34860,10 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043496</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458918</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127574</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884362</v>
+        <v>450.9268494884359</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>640.140690085694</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899253</v>
+        <v>249.5306650804282</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.32840335568762</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899085</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38099,10 +38099,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326294959</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38187,7 +38187,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060441</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
